--- a/aplicaciones/www/estaticos/datos/descarga/ya10-3-ataques-armados.xlsx
+++ b/aplicaciones/www/estaticos/datos/descarga/ya10-3-ataques-armados.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_mendivelso10_uniandes_edu_co/Documents/IMAGINA/Datos_Niñez_Ya/Indicadores/YA_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B4FEB59F-5A17-444A-9A07-113F99E17A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8BF83B-DC96-4C6F-8D4A-B8C53B3F5267}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B4FEB59F-5A17-444A-9A07-113F99E17A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A9A9912-9452-41DD-B980-83D81A55F246}"/>
   <bookViews>
-    <workbookView xWindow="40000" yWindow="1030" windowWidth="36640" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40000" yWindow="1030" windowWidth="36640" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="datos" sheetId="1" r:id="rId1"/>
+    <sheet name="metadatos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>codmpio</t>
   </si>
@@ -46,18 +47,52 @@
   <si>
     <t>o_acto_terror</t>
   </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Fecha_de_extracción</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t>Número de ocurrencias con artefactos explosivos (Minas antipersonales, munición sin explotar)</t>
+  </si>
+  <si>
+    <t>Panel CEDE - Registro Único de Víctimas
+Instituto Colombiano de Bienestar Familiar (ICBF)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -89,10 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7852"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -74829,4 +74866,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6725E9D4-E33B-492D-8FFF-306BF2100302}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>